--- a/Datos/Database by set/Set with text box/Xlsx sets/Strixhaven School of Mages (STX).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Strixhaven School of Mages (STX).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Datos/Database by set/Set with text box/Xlsx sets/Strixhaven School of Mages (STX).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Strixhaven School of Mages (STX).xlsx
@@ -500,7 +500,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>('Claim the Firstborn', ['{R}', 'Sorcery', 'Gain control of target creature with converted mana cost 3 or less until end of turn. Untap that creature. It gains haste until end of turn.'])</t>
+          <t>('Claim the Firstborn', ['{R}', 'Sorcery', 'Gain control of target creature with mana value 3 or less until end of turn. Untap that creature. It gains haste until end of turn.'])</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>('Cultivate', ['{2}{G}', 'Sorcery', 'Search your library for up to two basic land cards, reveal those cards, and put one onto the battlefield tapped and the other into your hand. Then shuffle your library.'])</t>
+          <t>('Cultivate', ['{2}{G}', 'Sorcery', 'Search your library for up to two basic land cards, reveal those cards, put one onto the battlefield tapped and the other into your hand, then shuffle.'])</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>('Demonic Tutor', ['{1}{B}', 'Sorcery', 'Search your library for a card, put that card into your hand, then shuffle your library.'])</t>
+          <t>('Demonic Tutor', ['{1}{B}', 'Sorcery', 'Search your library for a card, put that card into your hand, then shuffle.'])</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>('Despark', ['{W}{B}', 'Instant', 'Exile target permanent with converted mana cost 4 or greater.'])</t>
+          <t>('Despark', ['{W}{B}', 'Instant', 'Exile target permanent with mana value 4 or greater.'])</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>('Eliminate', ['{1}{B}', 'Instant', 'Destroy target creature or planeswalker with converted mana cost 3 or less.'])</t>
+          <t>('Eliminate', ['{1}{B}', 'Instant', 'Destroy target creature or planeswalker with mana value 3 or less.'])</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>('Gift of Estates', ['{1}{W}', 'Sorcery', 'If an opponent controls more lands than you, search your library for up to three Plains cards, reveal them, and put them into your hand. Then shuffle your library.'])</t>
+          <t>('Gift of Estates', ['{1}{W}', 'Sorcery', 'If an opponent controls more lands than you, search your library for up to three Plains cards, reveal them, put them into your hand, then shuffle.'])</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>('Gods Willing', ['{W}', 'Instant', 'Target creature you control gains protection from the color of your choice until end of turn. (It can’t be blocked, targeted, dealt damage, enchanted, or equipped by anything of that color.)', 'Scry 1. (Look at the top card of your library. You may put that card on the bottom of your library.)'])</t>
+          <t>('Gods Willing', ['{W}', 'Instant', 'Target creature you control gains protection from the color of your choice until end of turn. (It can’t be blocked, targeted, dealt damage, enchanted, or equipped by anything of that color.)', 'Scry 1.'])</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>('Inquisition of Kozilek', ['{B}', 'Sorcery', 'Target player reveals their hand. You choose a nonland card from it with converted mana cost 3 or less. That player discards that card.'])</t>
+          <t>('Inquisition of Kozilek', ['{B}', 'Sorcery', 'Target player reveals their hand. You choose a nonland card from it with mana value 3 or less. That player discards that card.'])</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>("Mind's Desire", ['{4}{U}{U}', 'Sorcery', 'Shuffle your library. Then exile the top card of your library. Until end of turn, you may play that card without paying its mana cost. (If it has X in its mana cost, X is 0.)', 'Storm (When you cast this spell, copy it for each spell cast before it this turn.)'])</t>
+          <t>("Mind's Desire", ['{4}{U}{U}', 'Sorcery', 'Shuffle your library. Then exile the top card of your library. Until end of turn, you may play that card without paying its mana cost.', 'Storm (When you cast this spell, copy it for each spell cast before it this turn.)'])</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>('Natural Order', ['{2}{G}{G}', 'Sorcery', 'As an additional cost to cast this spell, sacrifice a green creature.', 'Search your library for a green creature card and put it onto the battlefield. Then shuffle your library.'])</t>
+          <t>('Natural Order', ['{2}{G}{G}', 'Sorcery', 'As an additional cost to cast this spell, sacrifice a green creature.', 'Search your library for a green creature card, put it onto the battlefield, then shuffle.'])</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>('Opt', ['{U}', 'Instant', 'Scry 1. (Look at the top card of your library. You may put that card on the bottom of your library.)', 'Draw a card.'])</t>
+          <t>('Opt', ['{U}', 'Instant', 'Scry 1.', 'Draw a card.'])</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>('Primal Command', ['{3}{G}{G}', 'Sorcery', 'Choose two —', '• Target player gains 7 life.', '• Put target noncreature permanent on top of its owner’s library.', '• Target player shuffles their graveyard into their library.', '• Search your library for a creature card, reveal it, put it into your hand, then shuffle your library.'])</t>
+          <t>('Primal Command', ['{3}{G}{G}', 'Sorcery', 'Choose two —', '• Target player gains 7 life.', '• Put target noncreature permanent on top of its owner’s library.', '• Target player shuffles their graveyard into their library.', '• Search your library for a creature card, reveal it, put it into your hand, then shuffle.'])</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>('Snakeskin Veil', ['{G}', 'Instant', 'Put a +1/+1 counter on target creature you control. It gains hexproof until end of turn. (It can’t be the target of spells or abilities your opponents control.)'])</t>
+          <t>('Snakeskin Veil', ['{G}', 'Instant', 'Put a +1/+1 counter on target creature you control. It gains hexproof until end of turn.'])</t>
         </is>
       </c>
     </row>

--- a/Datos/Database by set/Set with text box/Xlsx sets/Strixhaven School of Mages (STX).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Strixhaven School of Mages (STX).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A68"/>
+  <dimension ref="A1:A281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,469 +444,1960 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>('Abundant Harvest', ['{G}', 'Sorcery', 'Choose land or nonland. Reveal cards from the top of your library until you reveal a card of the chosen kind. Put that card into your hand and the rest on the bottom of your library in a random order.'])</t>
+          <t>('Academic Dispute', ['{R}', 'Instant', 'Target creature blocks this turn if able. You may have it gain reach until end of turn.', 'Learn. (You may reveal a Lesson card you own from outside the game and put it into your hand, or discard a card to draw a card.)'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>('Adventurous Impulse', ['{G}', 'Sorcery', 'Look at the top three cards of your library. You may reveal a creature or land card from among them and put it into your hand. Put the rest on the bottom of your library in any order.'])</t>
+          <t>('Academic Probation', ['{1}{W}', 'Sorcery — Lesson', 'Choose one —', '• Choose a nonland card name. Opponents can’t cast spells with the chosen name until your next turn.', '• Choose target nonland permanent. Until your next turn, it can’t attack or block, and its activated abilities can’t be activated.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>('Agonizing Remorse', ['{1}{B}', 'Sorcery', 'Target opponent reveals their hand. You choose a nonland card from it or a card from their graveyard. Exile that card. You lose 1 life.'])</t>
+          <t>('Access Tunnel', ['Land', '{T}: Add {C}.', '{3}, {T}: Target creature with power 3 or less can’t be blocked this turn.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>('Approach of the Second Sun', ['{6}{W}', 'Sorcery', 'If this spell was cast from your hand and you’ve cast another spell named Approach of the Second Sun this game, you win the game. Otherwise, put Approach of the Second Sun into its owner’s library seventh from the top and you gain 7 life.'])</t>
+          <t>('Accomplished Alchemist', ['{3}{G}', 'Creature — Elf Druid', '{T}: Add one mana of any color.', '{T}: Add X mana of any one color, where X is the amount of life you gained this turn.', '2/5'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>("Blue Sun's Zenith", ['{X}{U}{U}{U}', 'Instant', 'Target player draws X cards. Shuffle Blue Sun’s Zenith into its owner’s library.'])</t>
+          <t>('Aether Helix', ['{3}{G}{U}', 'Sorcery', 'Return target permanent to its owner’s hand. Return target permanent card from your graveyard to your hand.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>('Brainstorm', ['{U}', 'Instant', 'Draw three cards, then put two cards from your hand on top of your library in any order.'])</t>
+          <t>('Ageless Guardian', ['{1}{W}', 'Creature — Spirit Soldier', '1/4'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>('Channel', ['{G}{G}', 'Sorcery', 'Until end of turn, any time you could activate a mana ability, you may pay 1 life. If you do, add {C}.'])</t>
+          <t>('Arcane Subtraction', ['{1}{U}', 'Instant', 'Target creature gets -4/-0 until end of turn.', 'Learn. (You may reveal a Lesson card you own from outside the game and put it into your hand, or discard a card to draw a card.)'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>('Chaos Warp', ['{2}{R}', 'Instant', 'The owner of target permanent shuffles it into their library, then reveals the top card of their library. If it’s a permanent card, they put it onto the battlefield.'])</t>
+          <t>('Archmage Emeritus', ['{2}{U}{U}', 'Creature — Human Wizard', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, draw a card.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>('Claim the Firstborn', ['{R}', 'Sorcery', 'Gain control of target creature with mana value 3 or less until end of turn. Untap that creature. It gains haste until end of turn.'])</t>
+          <t>('Archway Commons', ['Land', 'Archway Commons enters the battlefield tapped.', 'When Archway Commons enters the battlefield, sacrifice it unless you pay {1}.', '{T}: Add one mana of any color.'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>('Compulsive Research', ['{2}{U}', 'Sorcery', 'Target player draws three cards. Then that player discards two cards unless they discard a land card.'])</t>
+          <t>('Ardent Dustspeaker', ['{4}{R}', 'Creature — Minotaur Shaman', 'Whenever Ardent Dustspeaker attacks, you may put an instant or sorcery card from your graveyard on the bottom of your library. If you do, exile the top two cards of your library. You may play those cards this turn.', '3/4'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>('Counterspell', ['{U}{U}', 'Instant', 'Counter target spell.'])</t>
+          <t>('Arrogant Poet', ['{1}{B}', 'Creature — Human Warlock', 'Whenever Arrogant Poet attacks, you may pay 2 life. If you do, it gains flying until end of turn.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>('Crux of Fate', ['{3}{B}{B}', 'Sorcery', 'Choose one —', '• Destroy all Dragon creatures.', '• Destroy all non-Dragon creatures.'])</t>
+          <t>('Augmenter Pugilist', ['{1}{G}{G}', 'Creature — Troll Druid', 'Trample', 'As long as you control eight or more lands, Augmenter Pugilist gets +5/+5.', '3/3', 'Echoing Equation', '{3}{U}{U}', 'Sorcery', 'Choose target creature you control. Each other creature you control becomes a copy of it until end of turn, except those creatures aren’t legendary if the chosen creature is legendary.'])</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>('Cultivate', ['{2}{G}', 'Sorcery', 'Search your library for up to two basic land cards, reveal those cards, put one onto the battlefield tapped and the other into your hand, then shuffle.'])</t>
+          <t>('Baleful Mastery', ['{3}{B}', 'Instant', 'You may pay {1}{B} rather than pay this spell’s mana cost.', 'If the {1}{B} cost was paid, an opponent draws a card.', 'Exile target creature or planeswalker.'])</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>('Dark Ritual', ['{B}', 'Instant', 'Add {B}{B}{B}.'])</t>
+          <t>('Basic Conjuration', ['{1}{G}{G}', 'Sorcery — Lesson', 'Look at the top six cards of your library. You may reveal a creature card from among them and put it into your hand. Put the rest on the bottom of your library in a random order. You gain 3 life.'])</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>('Day of Judgment', ['{2}{W}{W}', 'Sorcery', 'Destroy all creatures.'])</t>
+          <t>('Bayou Groff', ['{1}{G}', 'Creature — Plant Dog', 'As an additional cost to cast this spell, sacrifice a creature or pay {3}.', '5/4'])</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>('Defiant Strike', ['{W}', 'Instant', 'Target creature gets +1/+0 until end of turn.', 'Draw a card.'])</t>
+          <t>('Beaming Defiance', ['{1}{W}', 'Instant', 'Target creature you control gets +2/+2 and gains hexproof until end of turn. (It can’t be the target of spells or abilities your opponents control.)'])</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>('Demonic Tutor', ['{1}{B}', 'Sorcery', 'Search your library for a card, put that card into your hand, then shuffle.'])</t>
+          <t>('Beledros Witherbloom', ['{5}{B}{G}', 'Legendary Creature — Elder Dragon', 'Flying', 'At the beginning of each upkeep, create a 1/1 black and green Pest creature token with “When this creature dies, you gain 1 life.”', 'Pay 10 life: Untap all lands you control. Activate only once each turn.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>('悪魔の教示者', ['{1}{B}', 'ソーサリー', 'あなたのライブラリーからカード１枚を探し、あなたの手札に加える。その後、ライブラリーを切り直す。'])</t>
+          <t>('Biblioplex Assistant', ['{4}', 'Artifact Creature — Gargoyle', 'Flying', 'When Biblioplex Assistant enters the battlefield, put up to one target instant or sorcery card from your graveyard on top of your library.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>('Despark', ['{W}{B}', 'Instant', 'Exile target permanent with mana value 4 or greater.'])</t>
+          <t>('Big Play', ['{1}{G}', 'Instant', 'Target creature gets +2/+2 and gains reach until end of turn. Put a +1/+1 counter on it.'])</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>('Divine Gambit', ['{W}{W}', 'Sorcery', 'Exile target artifact, creature, or enchantment an opponent controls. That player may put a permanent card from their hand onto the battlefield.'])</t>
+          <t>('Biomathematician', ['{1}{G}{U}', 'Creature — Human Wizard', 'When Biomathematician enters the battlefield, create a 0/0 green and blue Fractal creature token. Put a +1/+1 counter on each Fractal you control.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>('Doom Blade', ['{1}{B}', 'Instant', 'Destroy target nonblack creature.'])</t>
+          <t>('Blade Historian', ['{R/W}{R/W}{R/W}{R/W}', 'Creature — Human Cleric', 'Attacking creatures you control have double strike.', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>('Duress', ['{B}', 'Sorcery', 'Target opponent reveals their hand. You choose a noncreature, nonland card from it. That player discards that card.'])</t>
+          <t>('Blex, Vexing Pest', ['{2}{G}', 'Legendary Creature — Pest', 'Other Pests, Bats, Insects, Snakes, and Spiders you control get +1/+1.', 'When Blex, Vexing Pest dies, you gain 4 life.', '3/2', 'Search for Blex', '{2}{B}{B}', 'Sorcery', 'Look at the top five cards of your library. You may put any number of them into your hand and the rest into your graveyard. You lose 3 life for each card you put into your hand this way.'])</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>('Electrolyze', ['{1}{U}{R}', 'Instant', 'Electrolyze deals 2 damage divided as you choose among one or two targets.', 'Draw a card.'])</t>
+          <t>('Blood Age General', ['{1}{R}', 'Creature — Spirit Warrior', '{T}: Attacking Spirits get +1/+0 until end of turn.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>('Eliminate', ['{1}{B}', 'Instant', 'Destroy target creature or planeswalker with mana value 3 or less.'])</t>
+          <t>('Blood Researcher', ['{1}{B}{G}', 'Creature — Vampire Druid', 'Menace (This creature can’t be blocked except by two or more creatures.)', 'Whenever you gain life, put a +1/+1 counter on Blood Researcher.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>('Ephemerate', ['{W}', 'Instant', 'Exile target creature you control, then return it to the battlefield under its owner’s control.', 'Rebound (If you cast this spell from your hand, exile it as it resolves. At the beginning of your next upkeep, you may cast this card from exile without paying its mana cost.)'])</t>
+          <t>('Blot Out the Sky', ['{X}{W}{B}', 'Sorcery', 'Create X tapped 2/1 white and black Inkling creature tokens with flying. If X is 6 or more, destroy all noncreature, nonland permanents.'])</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>('儚い存在', ['{W}', 'インスタント', 'あなたがコントロールしているクリーチャー１体を対象とする。それを追放する。その後、それをオーナーのコントロール下で戦場に戻す。', '反復（この呪文があなたの手札から唱えていたなら、これの解決に際し、これを追放する。次のあなたのアップキープの開始時に、あなたは追放領域からこのカードをマナ・コストを支払うことなく唱えてもよい。）'])</t>
+          <t>('Body of Research', ['{G}{G}{G}{U}{U}{U}', 'Sorcery', 'Create a 0/0 green and blue Fractal creature token. Put X +1/+1 counters on it, where X is the number of cards in your library.'])</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>('Faithless Looting', ['{R}', 'Sorcery', 'Draw two cards, then discard two cards.', 'Flashback {2}{R} (You may cast this card from your graveyard for its flashback cost. Then exile it.)'])</t>
+          <t>('Bookwurm', ['{7}{G}', 'Creature — Wurm', 'Trample', 'When Bookwurm enters the battlefield, you gain 3 life and draw a card.', '{2}{G}: Put Bookwurm from your graveyard into your library third from the top.', '7/7'])</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>('Gift of Estates', ['{1}{W}', 'Sorcery', 'If an opponent controls more lands than you, search your library for up to three Plains cards, reveal them, put them into your hand, then shuffle.'])</t>
+          <t>('Brackish Trudge', ['{2}{B}', 'Creature — Fungus Beast', 'Brackish Trudge enters the battlefield tapped.', '{1}{B}: Return Brackish Trudge from your graveyard to your hand. Activate only if you gained life this turn.', '4/2'])</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>('Gods Willing', ['{W}', 'Instant', 'Target creature you control gains protection from the color of your choice until end of turn. (It can’t be blocked, targeted, dealt damage, enchanted, or equipped by anything of that color.)', 'Scry 1.'])</t>
+          <t>('Burrog Befuddler', ['{1}{U}', 'Creature — Frog Wizard', 'Flash', 'When Burrog Befuddler enters the battlefield, target creature an opponent controls gets -1/-0 until end of turn.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>('Grapeshot', ['{1}{R}', 'Sorcery', 'Grapeshot deals 1 damage to any target.', 'Storm (When you cast this spell, copy it for each spell cast before it this turn. You may choose new targets for the copies.)'])</t>
+          <t>('Bury in Books', ['{4}{U}', 'Instant', 'This spell costs {2} less to cast if it targets an attacking creature.', 'Put target creature into its owner’s library second from the top.'])</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>('Growth Spiral', ['{G}{U}', 'Instant', 'Draw a card. You may put a land card from your hand onto the battlefield.'])</t>
+          <t>('Callous Bloodmage', ['{2}{B}', 'Creature — Vampire Warlock', 'When Callous Bloodmage enters the battlefield, choose one —', '• Create a 1/1 black and green Pest creature token with “When this creature dies, you gain 1 life.”', '• You draw a card and you lose 1 life.', '• Exile target player’s graveyard.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>('Harmonize', ['{2}{G}{G}', 'Sorcery', 'Draw three cards.'])</t>
+          <t>('Campus Guide', ['{2}', 'Artifact Creature — Golem', 'When Campus Guide enters the battlefield, you may search your library for a basic land card, reveal it, then shuffle and put that card on top.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>('Increasing Vengeance', ['{R}{R}', 'Instant', 'Copy target instant or sorcery spell you control. If this spell was cast from a graveyard, copy that spell twice instead. You may choose new targets for the copies.', 'Flashback {3}{R}{R} (You may cast this card from your graveyard for its flashback cost. Then exile it.)'])</t>
+          <t>('Charge Through', ['{G}', 'Instant', 'Target creature gains trample until end of turn.', 'Draw a card.'])</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>('Infuriate', ['{R}', 'Instant', 'Target creature gets +3/+2 until end of turn.'])</t>
+          <t>('Clever Lumimancer', ['{W}', 'Creature — Human Wizard', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, Clever Lumimancer gets +2/+2 until end of turn.', '0/1'])</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>('Inquisition of Kozilek', ['{B}', 'Sorcery', 'Target player reveals their hand. You choose a nonland card from it with mana value 3 or less. That player discards that card.'])</t>
+          <t>('Closing Statement', ['{3}{W}{B}', 'Instant', 'This spell costs {2} less to cast during your end step.', 'Destroy target creature or planeswalker you don’t control. Put a +1/+1 counter on up to one target creature you control.'])</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>('Krosan Grip', ['{2}{G}', 'Instant', 'Split second (As long as this spell is on the stack, players can’t cast spells or activate abilities that aren’t mana abilities.)', 'Destroy target artifact or enchantment.'])</t>
+          <t>('Codie, Vociferous Codex', ['{3}', 'Legendary Artifact Creature — Construct', 'You can’t cast permanent spells.', '{4}, {T}: Add {W}{U}{B}{R}{G}. When you cast your next spell this turn, exile cards from the top of your library until you exile an instant or sorcery card with lesser mana value. Until end of turn, you may cast that card without paying its mana cost. Put each other card exiled this way on the bottom of your library in a random order.', '1/4'])</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>('Lightning Bolt', ['{R}', 'Instant', 'Lightning Bolt deals 3 damage to any target.'])</t>
+          <t>('Cogwork Archivist', ['{6}', 'Artifact Creature — Construct', 'Reach', '{2}, {T}: Put target card from a graveyard on the bottom of its owner’s library.', '4/5'])</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>('Lightning Helix', ['{R}{W}', 'Instant', 'Lightning Helix deals 3 damage to any target and you gain 3 life.'])</t>
+          <t>('Combat Professor', ['{3}{W}', 'Creature — Bird Cleric', 'Flying', 'At the beginning of combat on your turn, target creature you control gets +1/+0 and gains vigilance until end of turn.', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>('Mana Tithe', ['{W}', 'Instant', 'Counter target spell unless its controller pays {1}.'])</t>
+          <t>('Confront the Past', ['{X}{B}', 'Sorcery — Lesson', 'Choose one —', '• Return target planeswalker card with mana value X or less from your graveyard to the battlefield.', '• Remove twice X loyalty counters from target planeswalker an opponent controls.'])</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>('Memory Lapse', ['{1}{U}', 'Instant', 'Counter target spell. If that spell is countered this way, put it on top of its owner’s library instead of into that player’s graveyard.'])</t>
+          <t>('Conspiracy Theorist', ['{1}{R}', 'Creature — Human Shaman', 'Whenever Conspiracy Theorist attacks, you may pay {1} and discard a card. If you do, draw a card.', 'Whenever you discard one or more nonland cards, you may exile one of them from your graveyard. If you do, you may cast it this turn.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>("Mind's Desire", ['{4}{U}{U}', 'Sorcery', 'Shuffle your library. Then exile the top card of your library. Until end of turn, you may play that card without paying its mana cost.', 'Storm (When you cast this spell, copy it for each spell cast before it this turn.)'])</t>
+          <t>('Containment Breach', ['{2}{G}', 'Sorcery — Lesson', 'Destroy target artifact or enchantment. If its mana value is 2 or less, create a 1/1 black and green Pest creature token with “When this creature dies, you gain 1 life.”'])</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>("Mizzix's Mastery", ['{3}{R}', 'Sorcery', 'Exile target card that’s an instant or sorcery from your graveyard. For each card exiled this way, copy it, and you may cast the copy without paying its mana cost. Exile Mizzix’s Mastery.', 'Overload {5}{R}{R}{R} (You may cast this spell for its overload cost. If you do, change its text by replacing all instances of “target” with “each.”)'])</t>
+          <t>('Crackle with Power', ['{X}{X}{X}{R}{R}', 'Sorcery', 'Crackle with Power deals five times X damage to each of up to X targets.'])</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>('Natural Order', ['{2}{G}{G}', 'Sorcery', 'As an additional cost to cast this spell, sacrifice a green creature.', 'Search your library for a green creature card, put it onto the battlefield, then shuffle.'])</t>
+          <t>('Cram Session', ['{1}{B/G}', 'Sorcery', 'You gain 4 life.', 'Learn. (You may reveal a Lesson card you own from outside the game and put it into your hand, or discard a card to draw a card.)'])</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>('Negate', ['{1}{U}', 'Instant', 'Counter target noncreature spell.'])</t>
+          <t>('Creative Outburst', ['{3}{U}{U}{R}{R}', 'Instant', 'Creative Outburst deals 5 damage to any target. Look at the top five cards of your library. Put one of them into your hand and the rest on the bottom of your library in a random order.', '{U/R}{U/R}, Discard Creative Outburst: Create a Treasure token.'])</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>('Opt', ['{U}', 'Instant', 'Scry 1.', 'Draw a card.'])</t>
+          <t>('Crushing Disappointment', ['{3}{B}', 'Instant', 'Each player loses 2 life. You draw two cards.'])</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>('選択', ['{U}', 'インスタント', '占術１を行う。', 'カードを１枚引く。'])</t>
+          <t>('Culling Ritual', ['{2}{B}{G}', 'Sorcery', 'Destroy each nonland permanent with mana value 2 or less. Add {B} or {G} for each permanent destroyed this way.'])</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>('Primal Command', ['{3}{G}{G}', 'Sorcery', 'Choose two —', '• Target player gains 7 life.', '• Put target noncreature permanent on top of its owner’s library.', '• Target player shuffles their graveyard into their library.', '• Search your library for a creature card, reveal it, put it into your hand, then shuffle.'])</t>
+          <t>('Culmination of Studies', ['{X}{U}{R}', 'Sorcery', 'Exile the top X cards of your library. For each land card exiled this way, create a Treasure token. For each blue card exiled this way, draw a card. For each red card exiled this way, Culmination of Studies deals 1 damage to each opponent.'])</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>('Putrefy', ['{1}{B}{G}', 'Instant', 'Destroy target artifact or creature. It can’t be regenerated.'])</t>
+          <t>('Curate', ['{1}{U}', 'Instant', 'Look at the top two cards of your library. Put any number of them into your graveyard and the rest back on top of your library in any order.', 'Draw a card.'])</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>('Regrowth', ['{1}{G}', 'Sorcery', 'Return target card from your graveyard to your hand.'])</t>
+          <t>('Daemogoth Titan', ['{B/G}{B/G}{B/G}{B/G}', 'Creature — Demon', 'Whenever Daemogoth Titan attacks or blocks, sacrifice a creature.', '11/10'])</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>('Revitalize', ['{1}{W}', 'Instant', 'You gain 3 life.', 'Draw a card.'])</t>
+          <t>('Daemogoth Woe-Eater', ['{1}{B}{B/G}{G}', 'Creature — Demon', 'At the beginning of your upkeep, sacrifice a creature.', 'When you sacrifice Daemogoth Woe-Eater, each opponent discards a card, you draw a card, and you gain 2 life.', '7/6'])</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>('Shock', ['{R}', 'Instant', 'Shock deals 2 damage to any target.'])</t>
+          <t>('Deadly Brew', ['{B}{G}', 'Sorcery', 'Each player sacrifices a creature or planeswalker. If you sacrificed a permanent this way, you may return another permanent card from your graveyard to your hand.'])</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>('Sign in Blood', ['{B}{B}', 'Sorcery', 'Target player draws two cards and loses 2 life.'])</t>
+          <t>('Decisive Denial', ['{G}{U}', 'Instant', 'Choose one —', '• Target creature you control fights target creature you don’t control. (Each deals damage equal to its power to the other.)', '• Counter target noncreature spell unless its controller pays {3}.'])</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>('Snakeskin Veil', ['{G}', 'Instant', 'Put a +1/+1 counter on target creature you control. It gains hexproof until end of turn.'])</t>
+          <t>('Defend the Campus', ['{3}{W}', 'Instant', 'Choose one —', '• Creatures you control get +1/+1 until end of turn.', '• Destroy target creature with power 4 or greater.'])</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>('Stone Rain', ['{2}{R}', 'Sorcery', 'Destroy target land.'])</t>
+          <t>('Detention Vortex', ['{W}', 'Enchantment — Aura', 'Enchant nonland permanent', 'Enchanted permanent can’t attack or block, and its activated abilities can’t be activated.', '{3}: Destroy Detention Vortex. Only your opponents may activate this ability and only as a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>('Strategic Planning', ['{1}{U}', 'Sorcery', 'Look at the top three cards of your library. Put one of them into your hand and the rest into your graveyard.'])</t>
+          <t>('Devastating Mastery', ['{2}{W}{W}{W}{W}', 'Sorcery', 'You may pay {2}{W}{W} rather than pay this spell’s mana cost.', 'If the {2}{W}{W} cost was paid, an opponent chooses up to two nonland permanents they control and returns them to their owner’s hand.', 'Destroy all nonland permanents.'])</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>('Swords to Plowshares', ['{W}', 'Instant', 'Exile target creature. Its controller gains life equal to its power.'])</t>
+          <t>('Devouring Tendrils', ['{1}{G}', 'Sorcery', 'Target creature you control deals damage equal to its power to target creature or planeswalker you don’t control. When the permanent you don’t control dies this turn, you gain 2 life.'])</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>('剣を鍬に', ['{W}', 'インスタント', 'クリーチャー１体を対象とする。それを追放する。それのコントローラーは、それのパワーに等しい点数のライフを得る。'])</t>
+          <t>('Dina, Soul Steeper', ['{B}{G}', 'Legendary Creature — Dryad Druid', 'Whenever you gain life, each opponent loses 1 life.', '{1}, Sacrifice another creature: Dina, Soul Steeper gets +X/+0 until end of turn, where X is the sacrificed creature’s power.', '1/3'])</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>('Tainted Pact', ['{1}{B}', 'Instant', 'Exile the top card of your library. You may put that card into your hand unless it has the same name as another card exiled this way. Repeat this process until you put a card into your hand or you exile two cards with the same name, whichever comes first.'])</t>
+          <t>('Divide by Zero', ['{2}{U}', 'Instant', 'Return target spell or permanent with mana value 1 or greater to its owner’s hand.', 'Learn. (You may reveal a Lesson card you own from outside the game and put it into your hand, or discard a card to draw a card.)'])</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>("Teferi's Protection", ['{2}{W}', 'Instant', 'Until your next turn, your life total can’t change and you gain protection from everything. All permanents you control phase out. (While they’re phased out, they’re treated as though they don’t exist. They phase in before you untap during your untap step.)', 'Exile Teferi’s Protection.'])</t>
+          <t>('Double Major', ['{G}{U}', 'Instant', 'Copy target creature spell you control, except it isn’t legendary if the spell is legendary. (A copy of a creature spell becomes a token.)'])</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>('Tendrils of Agony', ['{2}{B}{B}', 'Sorcery', 'Target player loses 2 life and you gain 2 life.', 'Storm (When you cast this spell, copy it for each spell cast before it this turn. You may choose new targets for the copies.)'])</t>
+          <t>('Draconic Intervention', ['{2}{R}{R}', 'Sorcery', 'As an additional cost to cast this spell, exile an instant or sorcery card from your graveyard.', 'Draconic Intervention deals X damage to each non-Dragon creature, where X is the exiled card’s mana value. If a creature dealt damage this way would die this turn, exile it instead.', 'Exile Draconic Intervention.'])</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>("Tezzeret's Gambit", ['{3}{U/P}', 'Sorcery', '({U/P} can be paid with either {U} or 2 life.)', 'Draw two cards, then proliferate. (Choose any number of permanents and/or players, then give each another counter of each kind already there.)'])</t>
+          <t>("Dragon's Approach", ['{2}{R}', 'Sorcery', 'Dragon’s Approach deals 3 damage to each opponent. You may exile Dragon’s Approach and four cards named Dragon’s Approach from your graveyard. If you do, search your library for a Dragon creature card, put it onto the battlefield, then shuffle.', 'A deck can have any number of cards named Dragon’s Approach.'])</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>('Thrill of Possibility', ['{1}{R}', 'Instant', 'As an additional cost to cast this spell, discard a card.', 'Draw two cards.'])</t>
+          <t>('Dragonsguard Elite', ['{1}{G}', 'Creature — Human Druid', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, put a +1/+1 counter on Dragonsguard Elite.', '{4}{G}{G}: Double the number of +1/+1 counters on Dragonsguard Elite.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>('Time Warp', ['{3}{U}{U}', 'Sorcery', 'Target player takes an extra turn after this one.'])</t>
+          <t>('Dramatic Finale', ['{W/B}{W/B}{W/B}{W/B}', 'Enchantment', 'Creature tokens you control get +1/+1.', 'Whenever one or more nontoken creatures you control die, create a 2/1 white and black Inkling creature token with flying. This ability triggers only once each turn.'])</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>("Urza's Rage", ['{2}{R}', 'Instant', 'Kicker {8}{R} (You may pay an additional {8}{R} as you cast this spell.)', 'This spell can’t be countered.', 'Urza’s Rage deals 3 damage to any target. If this spell was kicked, instead it deals 10 damage to that permanent or player and the damage can’t be prevented.'])</t>
+          <t>('Dream Strix', ['{2}{U}', 'Creature — Bird Illusion', 'Flying', 'When Dream Strix becomes the target of a spell, sacrifice it.', 'When Dream Strix dies, learn. (You may reveal a Lesson card you own from outside the game and put it into your hand, or discard a card to draw a card.)', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>('Village Rites', ['{B}', 'Instant', 'As an additional cost to cast this spell, sacrifice a creature.', 'Draw two cards.'])</t>
+          <t>('Dueling Coach', ['{3}{W}', 'Creature — Human Monk', 'When Dueling Coach enters the battlefield, put a +1/+1 counter on target creature.', '{4}{W}, {T}: Put a +1/+1 counter on each creature you control with a +1/+1 counter on it.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>('Weather the Storm', ['{1}{G}', 'Instant', 'You gain 3 life.', 'Storm (When you cast this spell, copy it for each spell cast before it this turn.)'])</t>
+          <t>('Eager First-Year', ['{1}{W}', 'Creature — Human Wizard', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, Eager First-Year gets +1/+0 until end of turn.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>('Whirlwind Denial', ['{2}{U}', 'Instant', 'For each spell and ability your opponents control, counter it unless its controller pays {4}.'])</t>
+          <t>('Ecological Appreciation', ['{X}{2}{G}', 'Sorcery', 'Search your library and graveyard for up to four creature cards with different names that each have mana value X or less and reveal them. An opponent chooses two of those cards. Shuffle the chosen cards into your library and put the rest onto the battlefield. Exile Ecological Appreciation.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>('Efreet Flamepainter', ['{3}{R}', 'Creature — Efreet Shaman', 'Double strike', 'Whenever Efreet Flamepainter deals combat damage to a player, you may cast target instant or sorcery card from your graveyard without paying its mana cost. If that spell would be put into your graveyard, exile it instead.', '1/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>('Elemental Expressionist', ['{U/R}{U/R}{U/R}{U/R}', 'Creature — Orc Wizard', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, choose target creature you control. Until end of turn, it gains “If this creature would leave the battlefield, exile it instead of putting it anywhere else” and “When this creature is put into exile, create a 4/4 blue and red Elemental creature token.” (Each instance of that ability triggers separately.)', '4/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>('Elemental Masterpiece', ['{5}{U}{R}', 'Sorcery', 'Create two 4/4 blue and red Elemental creature tokens.', '{U/R}{U/R}, Discard Elemental Masterpiece: Create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>('Elemental Summoning', ['{3}{U/R}{U/R}', 'Sorcery — Lesson', 'Create a 4/4 blue and red Elemental creature token.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>('Elite Spellbinder', ['{2}{W}', 'Creature — Human Cleric', 'Flying', 'When Elite Spellbinder enters the battlefield, look at target opponent’s hand. You may exile a nonland card from it. For as long as that card remains exiled, its owner may play it. A spell cast this way costs {2} more to cast.', '3/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>('Emergent Sequence', ['{1}{G}', 'Sorcery', 'Search your library for a basic land card, put it onto the battlefield tapped, then shuffle. That land becomes a 0/0 green and blue Fractal creature that’s still a land. Put a +1/+1 counter on it for each land you had enter the battlefield under your control this turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>('Enthusiastic Study', ['{2}{R}', 'Instant', 'Target creature gets +3/+1 and gains trample until end of turn.', 'Learn. (You may reveal a Lesson card you own from outside the game and put it into your hand, or discard a card to draw a card.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>('Environmental Sciences', ['{2}', 'Sorcery — Lesson', 'Search your library for a basic land card, reveal it, put it into your hand, then shuffle. You gain 2 life.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>('Essence Infusion', ['{1}{B}', 'Sorcery', 'Put two +1/+1 counters on target creature. It gains lifelink until end of turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>('Eureka Moment', ['{2}{G}{U}', 'Instant', 'Draw two cards. You may put a land card from your hand onto the battlefield.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>('Excavated Wall', ['{1}', 'Artifact Creature — Wall', 'Defender', '{1}, {T}: Mill a card. (Put the top card of your library into your graveyard.)', '0/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>('Exhilarating Elocution', ['{2}{W}{B}', 'Sorcery', 'Put two +1/+1 counters on target creature you control. Other creatures you control get +1/+1 until end of turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>('Expanded Anatomy', ['{3}', 'Sorcery — Lesson', 'Put two +1/+1 counters on target creature. It gains vigilance until end of turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>('Expel', ['{2}{W}', 'Instant', 'Exile target tapped creature.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>('Explosive Welcome', ['{7}{R}', 'Instant', 'Explosive Welcome deals 5 damage to any target and 3 damage to any other target. Add {R}{R}{R}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>('Exponential Growth', ['{X}{X}{G}{G}', 'Sorcery', 'Until end of turn, double target creature’s power X times.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>('Expressive Iteration', ['{U}{R}', 'Sorcery', 'Look at the top three cards of your library. Put one of them into your hand, put one of them on the bottom of your library, and exile one of them. You may play the exiled card this turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>('Extus, Oriq Overlord', ['{1}{W}{B}{B}', 'Legendary Creature — Human Warlock', 'Double strike', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, return target nonlegendary creature card from your graveyard to your hand.', '2/4', 'Awaken the Blood Avatar', '{6}{B}{R}', 'Sorcery', 'As an additional cost to cast this spell, you may sacrifice any number of creatures. This spell costs {2} less to cast for each creature sacrificed this way.', 'Each opponent sacrifices a creature. Create a 3/6 black and red Avatar creature token with haste and “Whenever this creature attacks, it deals 3 damage to each opponent.”'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>('Eyetwitch', ['{B}', 'Creature — Eye Bat', 'Flying', 'When Eyetwitch dies, learn. (You may reveal a Lesson card you own from outside the game and put it into your hand, or discard a card to draw a card.)', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>('Fervent Mastery', ['{3}{R}{R}', 'Sorcery', 'You may pay {2}{R}{R} rather than pay this spell’s mana cost.', 'If the {2}{R}{R} cost was paid, an opponent discards any number of cards, then draws that many cards.', 'Search your library for up to three cards, put them into your hand, shuffle, then discard three cards at random.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>('Field Trip', ['{2}{G}', 'Sorcery', 'Search your library for a basic Forest card, put that card onto the battlefield tapped, then shuffle.', 'Learn. (You may reveal a Lesson card you own from outside the game and put it into your hand, or discard a card to draw a card.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>('First Day of Class', ['{1}{R}', 'Instant', 'Whenever a creature enters the battlefield under your control this turn, put a +1/+1 counter on it and it gains haste until end of turn.', 'Learn. (You may reveal a Lesson card you own from outside the game and put it into your hand, or discard a card to draw a card.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>('Flamescroll Celebrant', ['{1}{R}', 'Creature — Human Shaman', 'Whenever an opponent activates an ability that isn’t a mana ability, Flamescroll Celebrant deals 1 damage to that player.', '{1}{R}: Flamescroll Celebrant gets +2/+0 until end of turn.', '2/1', 'Revel in Silence', '{W}{W}', 'Instant', 'Your opponents can’t cast spells or activate planeswalkers’ loyalty abilities this turn.', 'Exile Revel in Silence.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>('Flunk', ['{1}{B}', 'Instant', 'Target creature gets -X/-X until end of turn, where X is 7 minus the number of cards in that creature’s controller’s hand.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>('Forest', ['Basic Land — Forest', '({T}: Add {G}.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>('Fortifying Draught', ['{G}', 'Instant', 'You gain 2 life. Target creature gets +X/+X until end of turn, where X is the amount of life you gained this turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>('Fractal Summoning', ['{X}{G/U}{G/U}', 'Sorcery — Lesson', 'Create a 0/0 green and blue Fractal creature token. Put X +1/+1 counters on it.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>('Fracture', ['{W}{B}', 'Instant', 'Destroy target artifact, enchantment, or planeswalker.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>('Frostboil Snarl', ['Land', 'As Frostboil Snarl enters the battlefield, you may reveal an Island or Mountain card from your hand. If you don’t, Frostboil Snarl enters the battlefield tapped.', '{T}: Add {U} or {R}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>('Frost Trickster', ['{2}{U}', 'Creature — Bird Wizard', 'Flying', 'When Frost Trickster enters the battlefield, tap target creature an opponent controls. That creature doesn’t untap during its controller’s next untap step.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>('Fuming Effigy', ['{3}{R}', 'Creature — Spirit', 'Whenever one or more cards leave your graveyard, Fuming Effigy deals 1 damage to each opponent.', '4/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>('Furycalm Snarl', ['Land', 'As Furycalm Snarl enters the battlefield, you may reveal a Mountain or Plains card from your hand. If you don’t, Furycalm Snarl enters the battlefield tapped.', '{T}: Add {R} or {W}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>('Galazeth Prismari', ['{2}{U}{R}', 'Legendary Creature — Elder Dragon', 'Flying', 'When Galazeth Prismari enters the battlefield, create a Treasure token.', 'Artifacts you control have “{T}: Add one mana of any color. Spend this mana only to cast an instant or sorcery spell.”', '3/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>('Gnarled Professor', ['{2}{G}{G}', 'Creature — Treefolk Druid', 'Trample', 'When Gnarled Professor enters the battlefield, learn. (You may reveal a Lesson card you own from outside the game and put it into your hand, or discard a card to draw a card.)', '5/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>('Go Blank', ['{2}{B}', 'Sorcery', 'Target player discards two cards. Then exile all cards from that player’s graveyard.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>('Golden Ratio', ['{1}{G}{U}', 'Sorcery', 'Draw a card for each different power among creatures you control.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>('Grinning Ignus', ['{2}{R}', 'Creature — Elemental', '{R}, Return Grinning Ignus to its owner’s hand: Add {C}{C}{R}. Activate only as a sorcery.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>('Guiding Voice', ['{W}', 'Sorcery', 'Put a +1/+1 counter on target creature.', 'Learn. (You may reveal a Lesson card you own from outside the game and put it into your hand, or discard a card to draw a card.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>('Hall Monitor', ['{R}', 'Creature — Lizard Shaman', 'Haste', '{1}{R}, {T}: Target creature can’t block this turn.', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>('Hall of Oracles', ['Land', '{T}: Add {C}.', '{1}, {T}: Add one mana of any color.', '{T}: Put a +1/+1 counter on target creature. Activate only as a sorcery and only if you’ve cast an instant or sorcery spell this turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>('Harness Infinity', ['{1}{B}{B}{B}{G}{G}{G}', 'Instant', 'Exchange your hand and graveyard.', 'Exile Harness Infinity.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>('Heated Debate', ['{2}{R}', 'Instant', 'This spell can’t be countered. (This includes by the ward ability.)', 'Heated Debate deals 4 damage to target creature or planeswalker.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>('Hofri Ghostforge', ['{3}{R}{W}', 'Legendary Creature — Dwarf Cleric', 'Spirits you control get +1/+1 and have trample and haste.', 'Whenever another nontoken creature you control dies, exile it. If you do, create a token that’s a copy of that creature, except it’s a Spirit in addition to its other types and it has “When this creature leaves the battlefield, return the exiled card to its owner’s graveyard.”', '4/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>('Honor Troll', ['{2}{G}', 'Creature — Troll Druid', 'Vigilance', 'If you would gain life, you gain that much life plus 1 instead.', 'Honor Troll gets +2/+1 as long as you have 25 or more life.', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>('Humiliate', ['{W}{B}', 'Sorcery', 'Target opponent reveals their hand. You choose a nonland card from it. That player discards that card. Put a +1/+1 counter on a creature you control.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>('Hunt for Specimens', ['{1}{B}', 'Sorcery', 'Create a 1/1 black and green Pest creature token with “When this creature dies, you gain 1 life.”', 'Learn. (You may reveal a Lesson card you own from outside the game and put it into your hand, or discard a card to draw a card.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>('Igneous Inspiration', ['{2}{R}', 'Sorcery', 'Igneous Inspiration deals 3 damage to any target.', 'Learn. (You may reveal a Lesson card you own from outside the game and put it into your hand, or discard a card to draw a card.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>('Illuminate History', ['{2}{R}{R}', 'Sorcery — Lesson', 'Discard any number of cards, then draw that many cards. Then if there are seven or more cards in your graveyard, create a 3/2 red and white Spirit creature token.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>('Illustrious Historian', ['{1}{R}', 'Creature — Human Shaman', '{5}, Exile Illustrious Historian from your graveyard: Create a tapped 3/2 red and white Spirit creature token.', '2/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>('Infuse with Vitality', ['{B}{G}', 'Instant', 'Until end of turn, target creature gains deathtouch and “When this creature dies, return it to the battlefield tapped under its owner’s control.”', 'You gain 2 life.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>('Ingenious Mastery', ['{X}{2}{U}', 'Sorcery', 'You may pay {2}{U} rather than pay this spell’s mana cost.', 'If the {2}{U} cost was paid, you draw three cards, then an opponent creates two Treasure tokens and they scry 2. If that cost wasn’t paid, you draw X cards.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>('Inkling Summoning', ['{1}{W/B}{W/B}', 'Sorcery — Lesson', 'Create a 2/1 white and black Inkling creature token with flying.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>('Introduction to Annihilation', ['{5}', 'Sorcery — Lesson', 'Exile target nonland permanent. Its controller draws a card.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>('Introduction to Prophecy', ['{3}', 'Sorcery — Lesson', 'Scry 2, then draw a card.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>('Island', ['Basic Land — Island', '({T}: Add {U}.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>('Jadzi, Oracle of Arcavios', ['{6}{U}{U}', 'Legendary Creature — Human Wizard', 'Discard a card: Return Jadzi, Oracle of Arcavios to its owner’s hand.', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, reveal the top card of your library. If it’s a nonland card, you may cast it by paying {1} rather than paying its mana cost. If it’s a land card, put it onto the battlefield.', '5/5', 'Journey to the Oracle', '{2}{G}{G}', 'Sorcery', 'You may put any number of land cards from your hand onto the battlefield. Then if you control eight or more lands, you may discard a card. If you do, return Journey to the Oracle to its owner’s hand.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>('Karok Wrangler', ['{4}{G}', 'Creature — Elf Druid', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, put a +1/+1 counter on target creature you control.', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>('Kasmina, Enigma Sage', ['{1}{G}{U}', 'Legendary Planeswalker — Kasmina', 'Each other planeswalker you control has the loyalty abilities of Kasmina, Enigma Sage.', '+2: Scry 1.', '−X: Create a 0/0 green and blue Fractal creature token. Put X +1/+1 counters on it.', '−8: Search your library for an instant or sorcery card that shares a color with this planeswalker, exile that card, then shuffle. You may cast that card without paying its mana cost.', 'Loyalty: 2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>('Kelpie Guide', ['{2}{U}', 'Creature — Beast', '{T}: Untap another target permanent you control.', '{T}: Tap target permanent. Activate only if you control eight or more lands.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>('Kianne, Dean of Substance', ['{2}{G}', 'Legendary Creature — Elf Druid', '{T}: Exile the top card of your library. If it’s a land card, put it into your hand. Otherwise, put a study counter on it.', '{4}{G}: Create a 0/0 green and blue Fractal creature token. Put a +1/+1 counter on it for each different mana value among nonland cards you own in exile with study counters on them.', '2/2', 'Imbraham, Dean of Theory', '{2}{U}{U}', 'Legendary Creature — Bird Wizard', 'Flying', '{X}{U}{U}, {T}: Exile the top X cards of your library and put a study counter on each of them. Then you may put a card you own in exile with a study counter on it into your hand.', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>('Killian, Ink Duelist', ['{W}{B}', 'Legendary Creature — Human Warlock', 'Lifelink', 'Menace (This creature can’t be blocked except by two or more creatures.)', 'Spells you cast that target a creature cost {2} less to cast.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>('Lash of Malice', ['{B}', 'Instant', 'Target creature gets +2/-2 until end of turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>('Leech Fanatic', ['{1}{B}', 'Creature — Human Warlock', 'As long as it’s your turn, Leech Fanatic has lifelink.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>('Leonin Lightscribe', ['{1}{W}', 'Creature — Cat Cleric', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, creatures you control get +1/+1 until end of turn.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>('Letter of Acceptance', ['{3}', 'Artifact', '{T}: Add one mana of any color.', '{2}, {T}, Sacrifice Letter of Acceptance: Draw a card.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>('Leyline Invocation', ['{5}{G}', 'Sorcery', 'Create a 0/0 green and blue Fractal creature token. Put X +1/+1 counters on it, where X is the number of lands you control.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>('Lorehold Apprentice', ['{R}{W}', 'Creature — Human Cleric', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, until end of turn, Spirit creatures you control gain “{T}: This creature deals 1 damage to each opponent.”', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>('Lorehold Campus', ['Land', 'Lorehold Campus enters the battlefield tapped.', '{T}: Add {R} or {W}.', '{4}, {T}: Scry 1.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>('Lorehold Command', ['{3}{R}{W}', 'Instant', 'Choose two —', '• Create a 3/2 red and white Spirit creature token.', '• Creatures you control get +1/+0 and gain indestructible and haste until end of turn.', '• Lorehold Command deals 3 damage to any target. Target player gains 3 life.', '• Sacrifice a permanent, then draw two cards.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>('Lorehold Excavation', ['{R}{W}', 'Enchantment', 'At the beginning of your end step, mill a card. If a land card was milled this way, you gain 1 life. Otherwise, Lorehold Excavation deals 1 damage to each opponent. (To mill a card, put the top card of your library into your graveyard.)', '{5}, Exile a creature card from your graveyard: Create a tapped 3/2 red and white Spirit creature token.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>('Lorehold Pledgemage', ['{1}{R/W}{R/W}', 'Creature — Kor Shaman', 'First strike', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, Lorehold Pledgemage gets +1/+0 until end of turn.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>('Maelstrom Muse', ['{1}{U}{U/R}{R}', 'Creature — Djinn Wizard', 'Flying', 'Whenever Maelstrom Muse attacks, the next instant or sorcery spell you cast this turn costs {X} less to cast, where X is Maelstrom Muse’s power as this ability resolves.', '2/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>('Mage Duel', ['{2}{G}', 'Sorcery', 'This spell costs {2} less to cast if you’ve cast another instant or sorcery spell this turn.', 'Target creature you control gets +1/+2 until end of turn. Then it fights target creature you don’t control. (Each deals damage equal to its power to the other.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>('Mage Hunter', ['{3}{B}', 'Creature — Horror', 'Whenever an opponent casts or copies an instant or sorcery spell, they lose 1 life.', '3/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>("Mage Hunters' Onslaught", ['{2}{B}{B}', 'Sorcery', 'Destroy target creature or planeswalker.', 'Whenever a creature blocks this turn, its controller loses 1 life.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>('Magma Opus', ['{6}{U}{R}', 'Instant', 'Magma Opus deals 4 damage divided as you choose among any number of targets. Tap two target permanents. Create a 4/4 blue and red Elemental creature token. Draw two cards.', '{U/R}{U/R}, Discard Magma Opus: Create a Treasure token.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>('Make Your Mark', ['{R/W}', 'Instant', 'Target creature gets +1/+0 until end of turn. When that creature dies this turn, create a 3/2 red and white Spirit creature token.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>('Manifestation Sage', ['{G/U}{G/U}{G/U}{G/U}', 'Creature — Human Wizard', 'When Manifestation Sage enters the battlefield, create a 0/0 green and blue Fractal creature token. Put X +1/+1 counters on it, where X is the number of cards in your hand.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>('Mascot Exhibition', ['{7}', 'Sorcery — Lesson', 'Create a 2/1 white and black Inkling creature token with flying, a 3/2 red and white Spirit creature token, and a 4/4 blue and red Elemental creature token.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>('Mascot Interception', ['{3}{R}', 'Sorcery', 'This spell costs {3} less to cast if it targets a creature token.', 'Gain control of target creature until end of turn. Untap that creature. It gets +2/+0 and gains haste until end of turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>('Master Symmetrist', ['{2}{G}{G}', 'Creature — Rhino Druid', 'Reach', 'Whenever a creature you control with power equal to its toughness attacks, it gains trample until end of turn.', '4/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>("Mavinda, Students' Advocate", ['{2}{W}', 'Legendary Creature — Bird Advisor', 'Flying', '{0}: You may cast target instant or sorcery card from your graveyard this turn. If that spell doesn’t target a creature you control, it costs {8} more to cast this way. If that spell would be put into your graveyard, exile it instead. Activate only once each turn. (You still pay the spell’s costs. Timing rules for the spell still apply.)', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>("Mentor's Guidance", ['{2}{U}', 'Sorcery', 'When you cast this spell, copy it if you control a planeswalker, Cleric, Druid, Shaman, Warlock, or Wizard.', 'Scry 1, then draw a card.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>('Mercurial Transformation', ['{1}{U}', 'Sorcery — Lesson', 'Until end of turn, target nonland permanent loses all abilities and becomes your choice of a blue Frog creature with base power and toughness 1/1 or a blue Octopus creature with base power and toughness 4/4.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>('Mila, Crafty Companion', ['{1}{W}{W}', 'Legendary Creature — Fox', 'Whenever an opponent attacks one or more planeswalkers you control, put a loyalty counter on each planeswalker you control.', 'Whenever a permanent you control becomes the target of a spell or ability an opponent controls, you may draw a card.', '2/3', 'Lukka, Wayward Bonder', '{4}{R}{R}', 'Legendary Planeswalker — Lukka', '+1: You may discard a card. If you do, draw a card. If a creature card was discarded this way, draw two cards instead.', '−2: Return target creature card from your graveyard to the battlefield. It gains haste. Exile it at the beginning of your next upkeep.', '−7: You get an emblem with “Whenever a creature enters the battlefield under your control, it deals damage equal to its power to any target.”', 'Loyalty: 5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>('Moldering Karok', ['{2}{B}{G}', 'Creature — Zombie Crocodile', 'Trample, lifelink', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>('Mortality Spear', ['{2}{B}{G}', 'Instant', 'This spell costs {2} less to cast if you gained life this turn.', 'Destroy target nonland permanent.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>('Mountain', ['Basic Land — Mountain', '({T}: Add {R}.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>('Multiple Choice', ['{X}{U}', 'Sorcery', 'If X is 1, scry 1, then draw a card.', 'If X is 2, you may choose a player. They return a creature they control to its owner’s hand.', 'If X is 3, create a 4/4 blue and red Elemental creature token.', 'If X is 4 or more, do all of the above.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>('Necroblossom Snarl', ['Land', 'As Necroblossom Snarl enters the battlefield, you may reveal a Swamp or Forest card from your hand. If you don’t, Necroblossom Snarl enters the battlefield tapped.', '{T}: Add {B} or {G}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>('Necrotic Fumes', ['{1}{B}{B}', 'Sorcery — Lesson', 'As an additional cost to cast this spell, exile a creature you control.', 'Exile target creature or planeswalker.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>('Needlethorn Drake', ['{G}{U}', 'Creature — Drake', 'Flying, deathtouch', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>('Novice Dissector', ['{3}{B}', 'Creature — Troll Warlock', '{1}, Sacrifice another creature: Put a +1/+1 counter on target creature. Activate only as a sorcery.', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>('Oggyar Battle-Seer', ['{3}{U}{R}', 'Creature — Ogre Shaman', 'Haste', '{T}: Scry 1.', '3/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>('Oriq Loremage', ['{2}{B}{B}', 'Creature — Human Warlock', '{T}: Search your library for a card, put it into your graveyard, then shuffle. If it’s an instant or sorcery card, put a +1/+1 counter on Oriq Loremage.', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>('Overgrown Arch', ['{1}{G}', 'Creature — Plant Wall', 'Defender', '{T}: You gain 1 life.', '{2}, Sacrifice Overgrown Arch: Learn. (You may reveal a Lesson card you own from outside the game and put it into your hand, or discard a card to draw a card.)', '0/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>('Owlin Shieldmage', ['{3}{W}{B}', 'Creature — Bird Warlock', 'Flying', 'Ward—Pay 3 life. (Whenever this creature becomes the target of a spell or ability an opponent controls, counter it unless that player pays 3 life.)', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>('Pestilent Cauldron', ['{2}{B}', 'Artifact', '{T}, Discard a card: Create a 1/1 black and green Pest creature token with “When this creature dies, you gain 1 life.”', '{1}, {T}: Each opponent mills cards equal to the amount of life you gained this turn.', '{4}, {T}: Exile four target cards from a single graveyard. Draw a card.', 'Restorative Burst', '{3}{G}{G}', 'Sorcery', 'Return up to two target creature, land, and/or planeswalker cards from your graveyard to your hand. Each player gains 4 life. Exile Restorative Burst.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>('Pest Summoning', ['{1}{B/G}{B/G}', 'Sorcery — Lesson', 'Create two 1/1 black and green Pest creature tokens with “When this creature dies, you gain 1 life.”'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>('Pigment Storm', ['{3}{R}{R}', 'Sorcery', 'Pigment Storm deals 5 damage to target creature. Excess damage is dealt to that creature’s controller instead.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>('Pilgrim of the Ages', ['{2}{W}', 'Creature — Spirit', 'When Pilgrim of the Ages enters the battlefield, you may search your library for a basic Plains card, reveal it, put it into your hand, then shuffle.', '{6}: Return Pilgrim of the Ages from your graveyard to your hand.', '2/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>('Pillardrop Rescuer', ['{4}{W}', 'Creature — Spirit Cleric', 'Flying', 'When Pillardrop Rescuer enters the battlefield, return target creature card with mana value 3 or less from your graveyard to your hand.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>('Pillardrop Warden', ['{3}{R}', 'Creature — Spirit Dwarf', 'Reach', '{2}, {T}, Sacrifice Pillardrop Warden: Return target instant or sorcery card from your graveyard to your hand. Activate only as a sorcery.', '1/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>('Plains', ['Basic Land — Plains', '({T}: Add {W}.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>('Plargg, Dean of Chaos', ['{1}{R}', 'Legendary Creature — Orc Shaman', '{T}, Discard a card: Draw a card.', '{4}{R}, {T}: Reveal cards from the top of your library until you reveal a nonlegendary, nonland card with mana value 3 or less. You may cast that card without paying its mana cost. Put all revealed cards not cast this way on the bottom of your library in a random order.', '2/2', 'Augusta, Dean of Order', '{2}{W}', 'Legendary Creature — Human Cleric', 'Other tapped creatures you control get +1/+0.', 'Other untapped creatures you control get +0/+1.', 'Whenever you attack, untap each creature you control, then tap any number of creatures you control.', '1/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>('Plumb the Forbidden', ['{1}{B}', 'Instant', 'As an additional cost to cast this spell, you may sacrifice one or more creatures. When you do, copy this spell for each creature sacrificed this way.', 'You draw a card and you lose 1 life.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>("Poet's Quill", ['{1}{B}', 'Artifact — Equipment', 'When Poet’s Quill enters the battlefield, learn. (You may reveal a Lesson card you own from outside the game and put it into your hand, or discard a card to draw a card.)', 'Equipped creature gets +1/+1 and has lifelink.', 'Equip {1}{B}'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>('Pop Quiz', ['{2}{U}', 'Instant', 'Draw a card.', 'Learn. (You may reveal a Lesson card you own from outside the game and put it into your hand, or discard a card to draw a card.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>('Practical Research', ['{3}{U}{R}', 'Instant', 'Draw four cards. Then discard two cards unless you discard an instant or sorcery card.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>('Prismari Apprentice', ['{U}{R}', 'Creature — Human Shaman', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, Prismari Apprentice can’t be blocked this turn. If that spell has mana value 5 or greater, put a +1/+1 counter on Prismari Apprentice.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>('Prismari Campus', ['Land', 'Prismari Campus enters the battlefield tapped.', '{T}: Add {U} or {R}.', '{4}, {T}: Scry 1.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>('Prismari Command', ['{1}{U}{R}', 'Instant', 'Choose two —', '• Prismari Command deals 2 damage to any target.', '• Target player draws two cards, then discards two cards.', '• Target player creates a Treasure token.', '• Destroy target artifact.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>('Prismari Pledgemage', ['{U/R}{U/R}', 'Creature — Orc Wizard', 'Defender', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, Prismari Pledgemage can attack this turn as though it didn’t have defender.', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>('Professor of Symbology', ['{1}{W}', 'Creature — Kor Cleric', 'When Professor of Symbology enters the battlefield, learn. (You may reveal a Lesson card you own from outside the game and put it into your hand, or discard a card to draw a card.)', '2/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>('Professor of Zoomancy', ['{3}{G}', 'Creature — Bear Druid', 'When Professor of Zoomancy enters the battlefield, create a 1/1 black and green Pest creature token with “When this creature dies, you gain 1 life.”', '4/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>('Professor Onyx', ['{4}{B}{B}', 'Legendary Planeswalker — Liliana', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, each opponent loses 2 life and you gain 2 life.', '+1: You lose 1 life. Look at the top three cards of your library. Put one of them into your hand and the rest into your graveyard.', '−3: Each opponent sacrifices a creature with the greatest power among creatures that player controls.', '−8: Each opponent may discard a card. If they don’t, they lose 3 life. Repeat this process six more times.', 'Loyalty: 5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>("Professor's Warning", ['{B}', 'Instant', 'Choose one —', '• Put a +1/+1 counter on target creature.', '• Target creature gains indestructible until end of turn. (Damage and effects that say “destroy” don’t destroy it.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>('Promising Duskmage', ['{2}{B}', 'Creature — Human Warlock', 'When Promising Duskmage dies, if it had a +1/+1 counter on it, draw a card.', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>('Quandrix Apprentice', ['{G}{U}', 'Creature — Human Wizard', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, look at the top three cards of your library. You may reveal a land card from among them and put that card into your hand. Put the rest on the bottom of your library in any order.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>('Quandrix Campus', ['Land', 'Quandrix Campus enters the battlefield tapped.', '{T}: Add {G} or {U}.', '{4}, {T}: Scry 1.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>('Quandrix Command', ['{1}{G}{U}', 'Instant', 'Choose two —', '• Return target creature or planeswalker to its owner’s hand.', '• Counter target artifact or enchantment spell.', '• Put two +1/+1 counters on target creature.', '• Target player shuffles up to three target cards from their graveyard into their library.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>('Quandrix Cultivator', ['{1}{G}{G/U}{U}', 'Creature — Turtle Druid', 'When Quandrix Cultivator enters the battlefield, you may search your library for a basic Forest or Island card, put it onto the battlefield, then shuffle.', '3/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>('Quandrix Pledgemage', ['{1}{G/U}{G/U}', 'Creature — Merfolk Druid', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, put a +1/+1 counter on Quandrix Pledgemage.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>('Quintorius, Field Historian', ['{3}{R}{W}', 'Legendary Creature — Elephant Cleric', 'Spirits you control get +1/+0.', 'Whenever one or more cards leave your graveyard, create a 3/2 red and white Spirit creature token.', '2/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>('Radiant Scrollwielder', ['{2}{R}{W}', 'Creature — Dwarf Cleric', 'Instant and sorcery spells you control have lifelink.', 'At the beginning of your upkeep, exile an instant or sorcery card at random from your graveyard. You may cast it this turn. If a spell cast this way would be put into your graveyard, exile it instead.', '2/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>('Reckless Amplimancer', ['{1}{G}', 'Creature — Elf Druid', '{4}{G}: Double Reckless Amplimancer’s power and toughness until end of turn.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>('Reconstruct History', ['{2}{R}{W}', 'Sorcery', 'Return up to one target artifact card, up to one target enchantment card, up to one target instant card, up to one target sorcery card, and up to one target planeswalker card from your graveyard to your hand.', 'Exile Reconstruct History.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>('Reduce to Memory', ['{1}{W}{W}', 'Sorcery — Lesson', 'Exile target nonland permanent. Its controller creates a 3/2 red and white Spirit creature token.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>('Reflective Golem', ['{3}', 'Artifact Creature — Golem', 'Whenever you cast an instant or sorcery spell that targets only Reflective Golem, you may pay {2}. If you do, copy that spell. You may choose new targets for the copy.', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>('Reject', ['{1}{U}', 'Instant', 'Counter target creature or planeswalker spell unless its controller pays {3}. If that spell is countered this way, exile it instead of putting it into its owner’s graveyard.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>('Relic Sloth', ['{3}{R}{W}', 'Creature — Beast', 'Vigilance', 'Menace (This creature can’t be blocked except by two or more creatures.)', '4/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>('Resculpt', ['{1}{U}', 'Instant', 'Exile target artifact or creature. Its controller creates a 4/4 blue and red Elemental creature token.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>('Retriever Phoenix', ['{3}{R}', 'Creature — Phoenix', 'Flying, haste', 'When Retriever Phoenix enters the battlefield, if you cast it, learn. (You may reveal a Lesson card you own from outside the game and put it into your hand, or discard a card to draw a card.)', 'As long as Retriever Phoenix is in your graveyard, if you would learn, you may instead return Retriever Phoenix to the battlefield.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>('Returned Pastcaller', ['{3}{R}{R/W}{W}', 'Creature — Spirit Cleric', 'Flying', 'When Returned Pastcaller enters the battlefield, return target Spirit, instant, or sorcery card from your graveyard to your hand.', '4/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>('Rip Apart', ['{R}{W}', 'Sorcery', 'Choose one —', '• Rip Apart deals 3 damage to target creature or planeswalker.', '• Destroy target artifact or enchantment.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>('Rise of Extus', ['{4}{W/B}{W/B}', 'Sorcery', 'Exile target creature. Exile up to one target instant or sorcery card from a graveyard.', 'Learn. (You may reveal a Lesson card you own from outside the game and put it into your hand, or discard a card to draw a card.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>('Rootha, Mercurial Artist', ['{1}{U}{R}', 'Legendary Creature — Orc Shaman', '{2}, Return Rootha, Mercurial Artist to its owner’s hand: Copy target instant or sorcery spell you control. You may choose new targets for the copy.', '1/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>('Rowan, Scholar of Sparks', ['{2}{R}', 'Legendary Planeswalker — Rowan', 'Instant and sorcery spells you cast cost {1} less to cast.', '+1: Rowan, Scholar of Sparks deals 1 damage to each opponent. If you’ve drawn three or more cards this turn, she deals 3 damage to each opponent instead.', '−4: You get an emblem with “Whenever you cast an instant or sorcery spell, you may pay {2}. If you do, copy that spell. You may choose new targets for the copy.”', 'Loyalty: 2', 'Will, Scholar of Frost', '{4}{U}', 'Legendary Planeswalker — Will', 'Instant and sorcery spells you cast cost {1} less to cast.', '+1: Up to one target creature has base power and toughness 0/2 until your next turn.', '−3: Draw two cards.', '−7: Exile up to five target permanents. For each permanent exiled this way, its controller creates a 4/4 blue and red Elemental creature token.', 'Loyalty: 4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>('Rushed Rebirth', ['{B}{G}', 'Instant', 'Choose target creature. When that creature dies this turn, search your library for a creature card with lesser mana value, put it onto the battlefield tapped, then shuffle.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>('Scurrid Colony', ['{1}{G}', 'Creature — Squirrel', 'Reach', 'Scurrid Colony gets +2/+2 as long as you control eight or more lands.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>('Secret Rendezvous', ['{1}{W}{W}', 'Sorcery', 'You and target opponent each draw three cards.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>('Sedgemoor Witch', ['{2}{B}', 'Creature — Human Warlock', 'Menace', 'Ward—Pay 3 life. (Whenever this creature becomes the target of a spell or ability an opponent controls, counter it unless that player pays 3 life.)', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, create a 1/1 black and green Pest creature token with “When this creature dies, you gain 1 life.”', '3/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>('Selfless Glyphweaver', ['{2}{W}', 'Creature — Human Cleric', 'Exile Selfless Glyphweaver: Creatures you control gain indestructible until end of turn.', '2/3', 'Deadly Vanity', '{5}{B}{B}{B}', 'Sorcery', 'Choose a creature or planeswalker, then destroy all other creatures and planeswalkers.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>("Semester's End", ['{3}{W}', 'Instant', 'Exile any number of target creatures and/or planeswalkers you control. At the beginning of the next end step, return each of them to the battlefield under its owner’s control. Each of them enters the battlefield with an additional +1/+1 counter on it if it’s a creature and an additional loyalty counter on it if it’s a planeswalker.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>('Serpentine Curve', ['{3}{U}', 'Sorcery', 'Create a 0/0 green and blue Fractal creature token. Put X +1/+1 counters on it, where X is one plus the total number of instant and sorcery cards you own in exile and in your graveyard.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>('Shadewing Laureate', ['{W}{W/B}{B}', 'Creature — Human Warlock', 'Flying', 'Whenever another creature you control with flying dies, put a +1/+1 counter on target creature you control.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>('Shadrix Silverquill', ['{3}{W}{B}', 'Legendary Creature — Elder Dragon', 'Flying, double strike', 'At the beginning of combat on your turn, you may choose two. Each mode must target a different player.', '• Target player creates a 2/1 white and black Inkling creature token with flying.', '• Target player draws a card and loses 1 life.', '• Target player puts a +1/+1 counter on each creature they control.', '2/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>('Shaile, Dean of Radiance', ['{1}{W}', 'Legendary Creature — Bird Cleric', 'Flying, vigilance', '{T}: Put a +1/+1 counter on each creature that entered the battlefield under your control this turn.', '1/1', 'Embrose, Dean of Shadow', '{2}{B}{B}', 'Legendary Creature — Human Warlock', '{T}: Put a +1/+1 counter on another target creature, then Embrose, Dean of Shadow deals 2 damage to that creature.', 'Whenever a creature you control with a +1/+1 counter on it dies, draw a card.', '4/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>('Shineshadow Snarl', ['Land', 'As Shineshadow Snarl enters the battlefield, you may reveal a Plains or Swamp card from your hand. If you don’t, Shineshadow Snarl enters the battlefield tapped.', '{T}: Add {W} or {B}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>('Show of Confidence', ['{1}{W}', 'Instant', 'When you cast this spell, copy it for each other instant and sorcery spell you’ve cast this turn. You may choose new targets for the copies.', 'Put a +1/+1 counter on target creature. It gains vigilance until end of turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>('Silverquill Apprentice', ['{W}{B}', 'Creature — Human Warlock', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, target creature gets +1/+0 until end of turn.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>('Silverquill Campus', ['Land', 'Silverquill Campus enters the battlefield tapped.', '{T}: Add {W} or {B}.', '{4}, {T}: Scry 1.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>('Silverquill Command', ['{2}{W}{B}', 'Sorcery', 'Choose two —', '• Target creature gets +3/+3 and gains flying until end of turn.', '• Return target creature card with mana value 2 or less from your graveyard to the battlefield.', '• Target player draws a card and loses 1 life.', '• Target opponent sacrifices a creature.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>('Silverquill Pledgemage', ['{1}{W/B}{W/B}', 'Creature — Vampire Cleric', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, Silverquill Pledgemage gains your choice of flying or lifelink until end of turn.', '3/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>('Silverquill Silencer', ['{W}{B}', 'Creature — Human Cleric', 'As Silverquill Silencer enters the battlefield, choose a nonland card name.', 'Whenever an opponent casts a spell with the chosen name, they lose 3 life and you draw a card.', '3/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>('Snow Day', ['{4}{U}{U}', 'Instant', 'Tap up to two target creatures. Those creatures don’t untap during their controller’s next untap step.', 'Draw two cards, then discard a card.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>('Solve the Equation', ['{2}{U}', 'Sorcery', 'Search your library for an instant or sorcery card, reveal it, put it into your hand, then shuffle.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>('Soothsayer Adept', ['{1}{U}', 'Creature — Merfolk Wizard', '{1}{U}, {T}: Draw a card, then discard a card.', '1/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>('Sparring Regimen', ['{2}{W}', 'Enchantment', 'When Sparring Regimen enters the battlefield, learn. (You may reveal a Lesson card you own from outside the game and put it into your hand, or discard a card to draw a card.)', 'Whenever you attack, put a +1/+1 counter on target attacking creature and untap it.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>('Spectacle Mage', ['{1}{U}{R}', 'Creature — Bird Shaman', 'Flying', 'Instant and sorcery spells you cast with mana value 5 or greater cost {1} less to cast.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>('Specter of the Fens', ['{3}{B}', 'Creature — Specter', 'Flying', '{5}{B}: Target opponent loses 2 life and you gain 2 life.', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>('Spell Satchel', ['{2}', 'Artifact', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, put a book counter on Spell Satchel.', '{T}, Remove a book counter from Spell Satchel: Add {C}.', '{3}, {T}, Remove three book counters from Spell Satchel: Draw a card.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>('Spined Karok', ['{2}{G}', 'Creature — Crocodile', '2/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>('Spirit Summoning', ['{1}{R/W}{R/W}', 'Sorcery — Lesson', 'Create a 3/2 red and white Spirit creature token.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>('Spiteful Squad', ['{2}{W}{B}', 'Creature — Human Warlock', 'Deathtouch', 'Spiteful Squad enters the battlefield with two +1/+1 counters on it.', 'When Spiteful Squad dies, put its counters on target creature you control.', '0/0'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>('Springmane Cervin', ['{2}{G}', 'Creature — Elk', 'When Springmane Cervin enters the battlefield, you gain 2 life.', '3/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>('Square Up', ['{1}{G/U}', 'Instant', 'Target creature has base power and toughness 4/4 until end of turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>('Star Pupil', ['{W}', 'Creature — Human Wizard', 'Star Pupil enters the battlefield with a +1/+1 counter on it.', 'When Star Pupil dies, put its counters on target creature you control.', '0/0'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>('Start from Scratch', ['{2}{R}', 'Sorcery — Lesson', 'Choose one —', '• Start from Scratch deals 1 damage to any target.', '• Destroy target artifact.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>("Stonebinder's Familiar", ['{W}', 'Creature — Spirit Dog', 'Whenever one or more cards are put into exile during your turn, put a +1/+1 counter on Stonebinder’s Familiar. This ability triggers only once each turn.', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>('Stonebound Mentor', ['{1}{R}{W}', 'Creature — Spirit Advisor', 'Whenever one or more cards leave your graveyard, scry 1.', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>('Stonerise Spirit', ['{1}{W}', 'Creature — Spirit Bird', 'Flying', '{4}, Exile a card from your graveyard: Target creature gains flying until end of turn.', '1/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>('Storm-Kiln Artist', ['{3}{R}', 'Creature — Dwarf Shaman', 'Storm-Kiln Artist gets +1/+0 for each artifact you control.', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, create a Treasure token.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>('Strict Proctor', ['{1}{W}', 'Creature — Spirit Cleric', 'Flying', 'Whenever a permanent entering the battlefield causes a triggered ability to trigger, counter that ability unless its controller pays {2}.', '1/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>('Strixhaven Stadium', ['{3}', 'Artifact', '{T}: Add {C}. Put a point counter on Strixhaven Stadium.', 'Whenever a creature deals combat damage to you, remove a point counter from Strixhaven Stadium.', 'Whenever a creature you control deals combat damage to an opponent, put a point counter on Strixhaven Stadium. Then if it has ten or more point counters on it, remove them all and that player loses the game.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>('Study Break', ['{1}{W}', 'Instant', 'Tap up to two target creatures.', 'Learn. (You may reveal a Lesson card you own from outside the game and put it into your hand, or discard a card to draw a card.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>('Sudden Breakthrough', ['{1}{R}', 'Instant', 'Target creature gets +2/+0 and gains first strike until end of turn.', 'Create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>('Swamp', ['Basic Land — Swamp', '({T}: Add {B}.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>('Symmetry Sage', ['{U}', 'Creature — Human Wizard', 'Flying', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, target creature you control has base power 2 until end of turn.', '0/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>('Tanazir Quandrix', ['{3}{G}{U}', 'Legendary Creature — Elder Dragon', 'Flying, trample', 'When Tanazir Quandrix enters the battlefield, double the number of +1/+1 counters on target creature you control.', 'Whenever Tanazir Quandrix attacks, you may have the base power and toughness of other creatures you control become equal to Tanazir Quandrix’s power and toughness until end of turn.', '4/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>('Tangletrap', ['{1}{G}', 'Instant', 'Choose one —', '• Tangletrap deals 5 damage to target creature with flying.', '• Destroy target artifact.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>('Teach by Example', ['{U/R}{U/R}', 'Instant', 'When you cast your next instant or sorcery spell this turn, copy that spell. You may choose new targets for the copy.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>('Teachings of the Archaics', ['{2}{U}', 'Sorcery — Lesson', 'If an opponent has more cards in hand than you, draw two cards. Draw three cards instead if an opponent has at least four more cards in hand than you.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>('Team Pennant', ['{1}', 'Artifact — Equipment', 'Equipped creature gets +1/+1 and has vigilance and trample.', 'Equip creature token {1}', 'Equip {3}'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>('Tempted by the Oriq', ['{1}{U}{U}{U}', 'Sorcery', 'For each opponent, gain control of up to one target creature or planeswalker that player controls with mana value 3 or less.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>('Tend the Pests', ['{B}{G}', 'Instant', 'As an additional cost to cast this spell, sacrifice a creature.', 'Create X 1/1 black and green Pest creature tokens with “When this creature dies, you gain 1 life,” where X is the sacrificed creature’s power.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>('Tenured Inkcaster', ['{4}{B}', 'Creature — Vampire Warlock', 'When Tenured Inkcaster enters the battlefield, put a +1/+1 counter on target creature.', 'Whenever a creature you control with a +1/+1 counter on it attacks, each opponent loses 1 life and you gain 1 life.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>('Test of Talents', ['{1}{U}', 'Instant', 'Counter target instant or sorcery spell. Search its controller’s graveyard, hand, and library for any number of cards with the same name as that spell and exile them. That player shuffles, then draws a card for each card exiled from their hand this way.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>('The Biblioplex', ['Land', '{T}: Add {C}.', '{2}, {T}: Look at the top card of your library. If it’s an instant or sorcery card, you may reveal it and put it into your hand. If you don’t put the card into your hand, you may put it into your graveyard. Activate only if you have exactly zero or seven cards in hand.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>('Thrilling Discovery', ['{R}{W}', 'Sorcery', 'You gain 2 life. Then you may discard two cards. If you do, draw three cards.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>('Thunderous Orator', ['{1}{W}', 'Creature — Kor Wizard', 'Vigilance', 'Whenever Thunderous Orator attacks, it gains flying until end of turn if you control a creature with flying. The same is true for first strike, double strike, deathtouch, indestructible, lifelink, menace, and trample.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>('Tome Shredder', ['{2}{R}', 'Creature — Wolf', 'Haste', '{T}, Exile an instant or sorcery card from your graveyard: Put a +1/+1 counter on Tome Shredder.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>('Torrent Sculptor', ['{2}{U}{U}', 'Creature — Merfolk Wizard', 'Ward {2} (Whenever this creature becomes the target of a spell or ability an opponent controls, counter it unless that player pays {2}.)', 'When Torrent Sculptor enters the battlefield, exile an instant or sorcery card from your graveyard. Put a number of +1/+1 counters on Torrent Sculptor equal to half that card’s mana value, rounded up.', '2/2', 'Flamethrower Sonata', '{1}{R}', 'Sorcery', 'Discard a card, then draw a card. When you discard an instant or sorcery card this way, Flamethrower Sonata deals damage equal to that card’s mana value to target creature or planeswalker you don’t control.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>('Twinscroll Shaman', ['{2}{R}', 'Creature — Dwarf Shaman', 'Double strike', '1/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>('Umbral Juke', ['{2}{B}', 'Instant', 'Choose one —', '• Target player sacrifices a creature or planeswalker.', '• Create a 2/1 white and black Inkling creature token with flying.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>('Unwilling Ingredient', ['{B}', 'Creature — Frog', 'Menace (This creature can’t be blocked except by two or more creatures.)', '{2}{B}, Exile Unwilling Ingredient from your graveyard: You draw a card and you lose 1 life.', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>('Uvilda, Dean of Perfection', ['{2}{U}', 'Legendary Creature — Djinn Wizard', '{T}: You may exile an instant or sorcery card from your hand and put three hone counters on it. It gains “At the beginning of your upkeep, if this card is exiled, remove a hone counter from it” and “When the last hone counter is removed from this card, if it’s exiled, you may cast it. It costs {4} less to cast this way.”', '2/2', 'Nassari, Dean of Expression', '{3}{R}{R}', 'Legendary Creature — Efreet Shaman', 'At the beginning of your upkeep, exile the top card of each opponent’s library. Until end of turn, you may cast spells from among those exiled cards, and you may spend mana as though it were mana of any color to cast those spells.', 'Whenever you cast a spell from exile, put a +1/+1 counter on Nassari, Dean of Expression.', '4/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>('Valentin, Dean of the Vein', ['{B}', 'Legendary Creature — Vampire Warlock', 'Menace, lifelink', 'If a nontoken creature an opponent controls would die, exile it instead. When you do, you may pay {2}. If you do, create a 1/1 black and green Pest creature token with “When this creature dies, you gain 1 life.”', '1/1', 'Lisette, Dean of the Root', '{2}{G}{G}', 'Legendary Creature — Human Druid', 'Whenever you gain life, you may pay {1}. If you do, put a +1/+1 counter on each creature you control and those creatures gain trample until end of turn.', '4/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>('Vanishing Verse', ['{W}{B}', 'Instant', 'Exile target monocolored permanent.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>('Velomachus Lorehold', ['{5}{R}{W}', 'Legendary Creature — Elder Dragon', 'Flying, vigilance, haste', 'Whenever Velomachus Lorehold attacks, look at the top seven cards of your library. You may cast an instant or sorcery spell with mana value less than or equal to Velomachus Lorehold’s power from among them without paying its mana cost. Put the rest on the bottom of your library in a random order.', '5/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>('Venerable Warsinger', ['{1}{R}{W}', 'Creature — Spirit Cleric', 'Vigilance, trample', 'Whenever Venerable Warsinger deals combat damage to a player, you may return target creature card with mana value X or less from your graveyard to the battlefield, where X is the amount of damage Venerable Warsinger dealt to that player.', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>('Verdant Mastery', ['{5}{G}', 'Sorcery', 'You may pay {3}{G} rather than pay this spell’s mana cost.', 'Search your library for up to four basic land cards and reveal them. Put one of them onto the battlefield tapped under an opponent’s control if the {3}{G} cost was paid. Put two of them onto the battlefield tapped under your control and the rest into your hand. Then shuffle.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>('Vineglimmer Snarl', ['Land', 'As Vineglimmer Snarl enters the battlefield, you may reveal a Forest or Island card from your hand. If you don’t, Vineglimmer Snarl enters the battlefield tapped.', '{T}: Add {G} or {U}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>('Vortex Runner', ['{2}{U}', 'Creature — Human Wizard', 'As long as you control eight or more lands, Vortex Runner gets +1/+0 and can’t be blocked.', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>('Wandering Archaic', ['{5}', 'Creature — Avatar', 'Whenever an opponent casts an instant or sorcery spell, they may pay {2}. If they don’t, you may copy that spell. You may choose new targets for the copy.', '4/4', 'Explore the Vastlands', '{3}', 'Sorcery', 'Each player looks at the top five cards of their library and may reveal a land card and/or an instant or sorcery card from among them. Each player puts the cards they revealed this way into their hand and the rest on the bottom of their library in a random order. Each player gains 3 life.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>('Waterfall Aerialist', ['{3}{U}', 'Creature — Djinn Wizard', 'Flying', 'Ward {2} (Whenever this creature becomes the target of a spell or ability an opponent controls, counter it unless that player pays {2}.)', '3/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>('Witherbloom Apprentice', ['{B}{G}', 'Creature — Human Druid', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, each opponent loses 1 life and you gain 1 life.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>('Witherbloom Campus', ['Land', 'Witherbloom Campus enters the battlefield tapped.', '{T}: Add {B} or {G}.', '{4}, {T}: Scry 1.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>('Witherbloom Command', ['{B}{G}', 'Sorcery', 'Choose two —', '• Target player mills three cards, then you return a land card from your graveyard to your hand.', '• Destroy target noncreature, nonland permanent with mana value 2 or less.', '• Target creature gets -3/-1 until end of turn.', '• Target opponent loses 2 life and you gain 2 life.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>('Witherbloom Pledgemage', ['{3}{B/G}{B/G}', 'Creature — Treefolk Warlock', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, you gain 1 life.', '5/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>('Wormhole Serpent', ['{4}{U}', 'Creature — Serpent', '{3}{U}: Target creature can’t be blocked this turn.', '3/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>('Zephyr Boots', ['{1}', 'Artifact — Equipment', 'Equipped creature has flying.', 'Whenever equipped creature deals combat damage to a player, draw a card, then discard a card.', 'Equip {2} ({2}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>('Zimone, Quandrix Prodigy', ['{G}{U}', 'Legendary Creature — Human Wizard', '{1}, {T}: You may put a land card from your hand onto the battlefield tapped.', '{4}, {T}: Draw a card. If you control eight or more lands, draw two cards instead.', '1/2'])</t>
         </is>
       </c>
     </row>
